--- a/Template/範本.xlsx
+++ b/Template/範本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{C5D3924D-C2BF-4DC0-811D-510FD6D96A70}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{7E642DAF-3BB1-4F75-811A-7A737665852B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" activeTab="3" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="聯繫狀況" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,9 @@
   <si>
     <t>性別</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年次</t>
   </si>
   <si>
     <t>e-mail</t>
@@ -832,69 +835,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -912,30 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1332,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F152C1-3CB9-4704-95D6-F80DDA0A0C46}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{B47C6826-7C28-58FF-910F-712BEA3D9C2B}">
-      <selection activeCell="J4" sqref="J4:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{B47C6826-7C28-58FF-910F-712BEA3D9C2B}">
+      <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1342,19 +1345,19 @@
       <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="I2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickTop="1">
       <c r="B3" s="25"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="I3" s="29"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
@@ -1362,101 +1365,103 @@
       <c r="B4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="I4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="2:11" ht="17.25" thickTop="1">
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="I5" s="29"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="25"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="2:11" ht="17.25" thickBot="1">
+    <row r="6" spans="2:11" ht="17.25" customHeight="1">
       <c r="B6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="2:11" ht="17.25" thickTop="1">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="I6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="25"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="I7" s="29"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1">
       <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="I8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickTop="1">
       <c r="B9" s="12"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1">
       <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="I10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
+        <v>9</v>
+      </c>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1"/>
     <row r="12" spans="2:11">
       <c r="B12" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32" t="s">
+      <c r="C12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="25"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="E13:K13"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:K12"/>
@@ -1470,6 +1475,7 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1500,85 +1506,85 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+        <v>14</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
       <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+        <v>16</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
       <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
       <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickBot="1">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="2:13" ht="17.25" thickTop="1">
       <c r="B9" s="14"/>
@@ -1588,103 +1594,103 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
       <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+        <v>19</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
     </row>
     <row r="11" spans="2:13" ht="17.25" thickTop="1"/>
     <row r="12" spans="2:13">
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="H12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="2:13">
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="15" spans="2:13">
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="I15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="2:13">
       <c r="D16" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
@@ -1692,305 +1698,305 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="I16" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="18" spans="3:15">
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="E18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" spans="3:15">
       <c r="D19" s="22"/>
-      <c r="E19" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="E19" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
     </row>
     <row r="21" spans="3:15">
       <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="D21" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="3:15" ht="17.25" thickBot="1">
       <c r="D22" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
     </row>
     <row r="23" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D23" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="41"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D24" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
     </row>
     <row r="25" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D25" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
     </row>
     <row r="26" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D26" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
     </row>
     <row r="27" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D27" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
     </row>
     <row r="28" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D28" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+        <v>87</v>
+      </c>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
     </row>
     <row r="29" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="30" spans="3:15">
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="3:15">
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="C33" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
     </row>
     <row r="35" spans="3:15" ht="17.25" thickTop="1">
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2003,211 +2009,222 @@
       <c r="O35" s="20"/>
     </row>
     <row r="36" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C36" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="I36" s="29" t="s">
+      <c r="C36" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="M36" s="29" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="I36" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="M36" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="38" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C38" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+      <c r="C38" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
       <c r="I38" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
+        <v>98</v>
+      </c>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
       <c r="M38" t="s">
-        <v>98</v>
-      </c>
-      <c r="N38" s="30"/>
+        <v>99</v>
+      </c>
+      <c r="N38" s="29"/>
       <c r="O38" s="27"/>
     </row>
     <row r="39" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="40" spans="3:15" ht="17.25" thickBot="1">
       <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
       <c r="I40" t="s">
-        <v>100</v>
-      </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
     </row>
     <row r="41" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="42" spans="3:15" ht="17.25" thickBot="1">
       <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
+        <v>102</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="44" spans="3:15">
-      <c r="C44" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
+      <c r="C44" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
     </row>
     <row r="45" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
     </row>
     <row r="46" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="47" spans="3:15">
-      <c r="C47" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="C47" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
     </row>
     <row r="48" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
     </row>
     <row r="49" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="50" spans="3:15">
-      <c r="C50" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
+      <c r="C50" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
     </row>
     <row r="52" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="53" spans="3:15">
-      <c r="C53" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
+      <c r="C53" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
     </row>
     <row r="54" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
     </row>
     <row r="55" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="56" spans="3:15">
-      <c r="C56" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
+      <c r="C56" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
     </row>
     <row r="57" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
     </row>
     <row r="58" spans="3:15" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C57:O57"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="C51:O51"/>
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="K28:O28"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="L6:M6"/>
@@ -2224,29 +2241,18 @@
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="K24:O24"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C57:O57"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C45:O45"/>
-    <mergeCell ref="C48:O48"/>
-    <mergeCell ref="C51:O51"/>
-    <mergeCell ref="C54:O54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2267,90 +2273,90 @@
     <row r="1" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:13">
       <c r="B2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+        <v>108</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+        <v>35</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+        <v>109</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+        <v>26</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="7"/>
       <c r="G5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1">
@@ -2370,90 +2376,90 @@
     <row r="8" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="9" spans="2:13" ht="17.25" thickBot="1">
       <c r="B9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+        <v>108</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+        <v>35</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+        <v>109</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+        <v>26</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="7"/>
       <c r="G12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="2:13" ht="18" thickTop="1" thickBot="1">
@@ -2473,90 +2479,90 @@
     <row r="15" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="16" spans="2:13" ht="17.25" thickBot="1">
       <c r="B16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+        <v>108</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+        <v>35</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+        <v>109</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+        <v>26</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+        <v>76</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="7"/>
       <c r="G19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+        <v>55</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="2:13" ht="18" thickTop="1" thickBot="1">
@@ -2575,15 +2581,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:L20"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="C9:E9"/>
@@ -2597,11 +2599,15 @@
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2612,81 +2618,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0592A52-B5B9-4E43-AA6C-8331627FA7CD}">
   <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" xr3:uid="{A2B9DAA1-2053-5F22-85F8-F5CDB201889E}">
+    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{A2B9DAA1-2053-5F22-85F8-F5CDB201889E}">
       <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:13">
-      <c r="B2" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="52"/>
+      <c r="B2" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="52"/>
+      <c r="B9" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="60"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="59"/>
+        <v>117</v>
+      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="58"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2697,49 +2703,49 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="59"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
+      <c r="B15" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="59"/>
+        <v>117</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="52"/>
+      <c r="B18" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="60"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="63"/>
@@ -2757,16 +2763,16 @@
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="66"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
       <c r="M22" s="67"/>
     </row>
     <row r="23" spans="2:13">

--- a/Template/範本.xlsx
+++ b/Template/範本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19024"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Talent\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{7E642DAF-3BB1-4F75-811A-7A737665852B}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="0E7660841F634BA76C23A421553A7AF43CEAAA2E" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{EC68DC69-5B85-4D48-8193-F0C34A4E9AFE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" firstSheet="3" activeTab="2" xr2:uid="{38E20AC2-159A-4C6D-8820-95C28B0D8BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="聯繫狀況" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="119">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,7 +113,6 @@
   </si>
   <si>
     <t>緊急通知人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  關係</t>
@@ -391,27 +390,21 @@
   </si>
   <si>
     <t>最近三年內，是否有計畫繼續就學或出國深造?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有無親友在本公司服務?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>關係</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在工作中您最在乎什麼?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>希望待遇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通知後多久可報到?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>優點</t>
@@ -427,23 +420,18 @@
   </si>
   <si>
     <t>什麼原因吸引您來亦思應徵此工作? 您對亦思的第一印象是什麼?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>請描述您對未來的目標、希望。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>您心目中的理想主管是什麼樣的人?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>您希望亦思給與您什麼承諾?(任何方面)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>覺得自己的哪個特質最強烈? 現在您有三十秒的自我推薦時間，您會透過什麼方式讓我們對您印象深刻?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>公司名稱</t>
@@ -452,6 +440,9 @@
   <si>
     <t>專案名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起迄年月</t>
   </si>
   <si>
     <t>專案簡述</t>
@@ -826,6 +817,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -835,56 +850,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,24 +911,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1335,69 +1326,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F152C1-3CB9-4704-95D6-F80DDA0A0C46}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{B47C6826-7C28-58FF-910F-712BEA3D9C2B}">
+    <sheetView workbookViewId="0" xr3:uid="{B47C6826-7C28-58FF-910F-712BEA3D9C2B}">
       <selection activeCell="J6" sqref="J6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="43"/>
       <c r="K2" s="43"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" thickTop="1">
-      <c r="B3" s="25"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="I3" s="28"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="25"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" ht="17.25" customHeight="1">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="37" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="25"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1">
       <c r="B8" s="12" t="s">
@@ -1405,7 +1396,7 @@
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="33" t="s">
         <v>7</v>
       </c>
       <c r="J8" s="43"/>
@@ -1415,7 +1406,7 @@
       <c r="B9" s="12"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="I9" s="28"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1">
       <c r="B10" s="12" t="s">
@@ -1431,7 +1422,7 @@
     </row>
     <row r="11" spans="2:11" ht="17.25" thickTop="1"/>
     <row r="12" spans="2:11">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -1449,7 +1440,7 @@
       <c r="K12" s="40"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="25"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -1486,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C50D9C-7F57-410A-8CE6-4BDA655AB358}">
   <dimension ref="B1:O58"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0" xr3:uid="{D98C0DED-E3CE-5ED6-918C-639ED77930ED}">
-      <selection activeCell="K28" sqref="K28:O28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{D98C0DED-E3CE-5ED6-918C-639ED77930ED}">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1506,8 +1497,8 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
       <c r="E2" t="s">
         <v>13</v>
       </c>
@@ -1521,13 +1512,13 @@
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -1545,12 +1536,12 @@
       <c r="M4" s="43"/>
     </row>
     <row r="5" spans="2:13" ht="17.25" thickTop="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
     </row>
     <row r="6" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
       <c r="E6" t="s">
         <v>17</v>
       </c>
@@ -1568,8 +1559,8 @@
       <c r="M6" s="43"/>
     </row>
     <row r="7" spans="2:13" ht="18" thickTop="1" thickBot="1">
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
     </row>
     <row r="8" spans="2:13" ht="17.25" thickBot="1">
       <c r="B8" s="14"/>
@@ -1614,16 +1605,16 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -1659,19 +1650,19 @@
       <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="34" t="s">
         <v>37</v>
       </c>
       <c r="I15" s="40" t="s">
@@ -1698,13 +1689,13 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
     </row>
     <row r="18" spans="3:15">
       <c r="C18" t="s">
@@ -1727,28 +1718,28 @@
     </row>
     <row r="19" spans="3:15">
       <c r="D19" s="22"/>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
     </row>
     <row r="21" spans="3:15">
       <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="3:15" ht="17.25" thickBot="1">
       <c r="D22" s="23" t="s">
@@ -1778,9 +1769,9 @@
       <c r="L22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
     </row>
     <row r="23" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D23" s="23" t="s">
@@ -1798,15 +1789,15 @@
       <c r="H23" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L23" s="54"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D24" s="23" t="s">
@@ -1830,11 +1821,11 @@
       <c r="J24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
     </row>
     <row r="25" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D25" s="23" t="s">
@@ -1858,11 +1849,11 @@
       <c r="J25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
     </row>
     <row r="26" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D26" s="23" t="s">
@@ -1880,13 +1871,13 @@
       <c r="H26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
     </row>
     <row r="27" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D27" s="23" t="s">
@@ -1907,12 +1898,12 @@
       <c r="I27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
     </row>
     <row r="28" spans="3:15" ht="18" thickTop="1" thickBot="1">
       <c r="D28" s="23" t="s">
@@ -1936,11 +1927,11 @@
       <c r="J28" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
     </row>
     <row r="29" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="30" spans="3:15">
@@ -1964,39 +1955,39 @@
       </c>
     </row>
     <row r="31" spans="3:15">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
     </row>
     <row r="35" spans="3:15" ht="17.25" thickTop="1">
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2009,19 +2000,19 @@
       <c r="O35" s="20"/>
     </row>
     <row r="36" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
-      <c r="I36" s="28" t="s">
+      <c r="I36" s="37" t="s">
         <v>96</v>
       </c>
       <c r="J36" s="43"/>
       <c r="K36" s="43"/>
-      <c r="M36" s="28" t="s">
+      <c r="M36" s="37" t="s">
         <v>0</v>
       </c>
       <c r="N36" s="43"/>
@@ -2029,11 +2020,11 @@
     </row>
     <row r="37" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="38" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="I38" t="s">
@@ -2044,8 +2035,8 @@
       <c r="M38" t="s">
         <v>99</v>
       </c>
-      <c r="N38" s="29"/>
-      <c r="O38" s="27"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="35"/>
     </row>
     <row r="39" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="40" spans="3:15" ht="17.25" thickBot="1">
@@ -2059,12 +2050,12 @@
       <c r="I40" t="s">
         <v>101</v>
       </c>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
     </row>
     <row r="41" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="42" spans="3:15" ht="17.25" thickBot="1">
@@ -2078,13 +2069,13 @@
     </row>
     <row r="43" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="44" spans="3:15">
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
     </row>
     <row r="45" spans="3:15" ht="17.25" thickBot="1">
       <c r="C45" s="43"/>
@@ -2103,34 +2094,34 @@
     </row>
     <row r="46" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="47" spans="3:15">
-      <c r="C47" s="52" t="s">
+      <c r="C47" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
     </row>
     <row r="48" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
     </row>
     <row r="49" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="50" spans="3:15">
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
     </row>
     <row r="51" spans="3:15" ht="17.25" thickBot="1">
       <c r="C51" s="43"/>
@@ -2149,11 +2140,11 @@
     </row>
     <row r="52" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="53" spans="3:15">
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
     </row>
     <row r="54" spans="3:15" ht="17.25" thickBot="1">
       <c r="C54" s="43"/>
@@ -2172,17 +2163,17 @@
     </row>
     <row r="55" spans="3:15" ht="17.25" thickTop="1"/>
     <row r="56" spans="3:15">
-      <c r="C56" s="52" t="s">
+      <c r="C56" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
     </row>
     <row r="57" spans="3:15" ht="17.25" thickBot="1">
       <c r="C57" s="43"/>
@@ -2202,6 +2193,41 @@
     <row r="58" spans="3:15" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F8:M8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B2:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="J27:O27"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C57:O57"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="J36:K36"/>
@@ -2218,41 +2244,6 @@
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="J27:O27"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B2:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F8:M8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2264,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5DA376-C34A-4B74-B754-35EE044F6B10}">
   <dimension ref="B1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" xr3:uid="{C6B97A00-7C12-5BF0-8969-5A51D2C0E199}">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" xr3:uid="{C6B97A00-7C12-5BF0-8969-5A51D2C0E199}">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2298,7 +2289,7 @@
       <c r="E3" s="57"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
@@ -2345,7 +2336,7 @@
     </row>
     <row r="6" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -2448,7 +2439,7 @@
     </row>
     <row r="13" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -2551,7 +2542,7 @@
     </row>
     <row r="20" spans="2:13" ht="18" thickTop="1" thickBot="1">
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
@@ -2581,11 +2572,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="C9:E9"/>
@@ -2599,15 +2594,11 @@
     <mergeCell ref="C13:L13"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2619,14 +2610,14 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{A2B9DAA1-2053-5F22-85F8-F5CDB201889E}">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="60"/>
     </row>
@@ -2636,22 +2627,22 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="60"/>
     </row>
@@ -2660,28 +2651,28 @@
       <c r="C10" s="62"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="34" t="s">
-        <v>116</v>
+      <c r="B13" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
@@ -2689,10 +2680,10 @@
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
-      <c r="M13" s="35"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="34"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2703,17 +2694,17 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="35"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="34" t="s">
-        <v>116</v>
+      <c r="B15" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
@@ -2721,21 +2712,21 @@
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
       <c r="L15" s="43"/>
-      <c r="M15" s="35"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="38"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="59" t="s">
